--- a/jpcore-r4/main/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/main/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="537">
   <si>
     <t>Property</t>
   </si>
@@ -1120,9 +1120,6 @@
     <t>レンダリング可能で、不コード化されていないフォーム。 / A renderable, unencoded form.</t>
   </si>
   <si>
-    <t>東京都文京区本郷7-3-1</t>
-  </si>
-  <si>
     <t>Address.text</t>
   </si>
   <si>
@@ -1149,9 +1146,6 @@
 例：藤崎町大字藤崎字西村1-2 春山荘201号室</t>
   </si>
   <si>
-    <t>本郷7-3-1</t>
-  </si>
-  <si>
     <t>Address.line</t>
   </si>
   <si>
@@ -1177,9 +1171,6 @@
     <t>１MBを超えないこと。  【JP Core仕様】郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。 例：文京区</t>
   </si>
   <si>
-    <t>文京区</t>
-  </si>
-  <si>
     <t>Address.city</t>
   </si>
   <si>
@@ -1230,9 +1221,6 @@
     <t>１MBを超えないこと。  都道府県名。「都」「道」「府」「県」のそれぞれの文字を含める。 例：東京都</t>
   </si>
   <si>
-    <t>東京都</t>
-  </si>
-  <si>
     <t>Address.state</t>
   </si>
   <si>
@@ -1256,9 +1244,6 @@
   </si>
   <si>
     <t>郵便番号。日本の郵便番号の場合には3桁数字とハイフン1文字と4桁数字からなる半角８文字、または最初の3桁だけの3文字のいずれかとする。 例：113-8655</t>
-  </si>
-  <si>
-    <t>113-8655</t>
   </si>
   <si>
     <t>Address.postalCode</t>
@@ -6789,43 +6774,43 @@
         <v>41</v>
       </c>
       <c r="T40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6840,16 +6825,16 @@
         <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>41</v>
@@ -6857,10 +6842,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6886,13 +6871,13 @@
         <v>138</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6906,7 +6891,7 @@
         <v>41</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>345</v>
+        <v>41</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>41</v>
@@ -6942,7 +6927,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6957,7 +6942,7 @@
         <v>61</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>41</v>
@@ -6966,7 +6951,7 @@
         <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>41</v>
@@ -6974,14 +6959,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7003,13 +6988,13 @@
         <v>138</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7023,7 +7008,7 @@
         <v>41</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>354</v>
+        <v>41</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>41</v>
@@ -7059,7 +7044,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -7074,7 +7059,7 @@
         <v>61</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
@@ -7083,7 +7068,7 @@
         <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>41</v>
@@ -7091,14 +7076,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7120,13 +7105,13 @@
         <v>138</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7176,7 +7161,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -7191,7 +7176,7 @@
         <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
@@ -7200,7 +7185,7 @@
         <v>41</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>41</v>
@@ -7208,14 +7193,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7237,13 +7222,13 @@
         <v>138</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7257,7 +7242,7 @@
         <v>41</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>371</v>
+        <v>41</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>41</v>
@@ -7293,7 +7278,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -7308,7 +7293,7 @@
         <v>61</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
@@ -7317,7 +7302,7 @@
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>41</v>
@@ -7325,14 +7310,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7354,13 +7339,13 @@
         <v>138</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7374,7 +7359,7 @@
         <v>41</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>380</v>
+        <v>41</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>41</v>
@@ -7410,7 +7395,7 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7425,7 +7410,7 @@
         <v>61</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
@@ -7434,7 +7419,7 @@
         <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>41</v>
@@ -7442,10 +7427,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7471,13 +7456,13 @@
         <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7527,7 +7512,7 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7542,7 +7527,7 @@
         <v>61</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
@@ -7551,7 +7536,7 @@
         <v>41</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>41</v>
@@ -7559,10 +7544,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7588,16 +7573,16 @@
         <v>186</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7646,7 +7631,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7670,7 +7655,7 @@
         <v>41</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>41</v>
@@ -7678,10 +7663,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7707,16 +7692,16 @@
         <v>159</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -7744,10 +7729,10 @@
         <v>164</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>41</v>
@@ -7765,7 +7750,7 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7780,16 +7765,16 @@
         <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>41</v>
@@ -7797,10 +7782,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7823,19 +7808,19 @@
         <v>41</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>41</v>
@@ -7884,7 +7869,7 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7899,7 +7884,7 @@
         <v>61</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>142</v>
@@ -7908,7 +7893,7 @@
         <v>41</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>41</v>
@@ -7916,10 +7901,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7942,19 +7927,19 @@
         <v>41</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -8003,7 +7988,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -8018,7 +8003,7 @@
         <v>61</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>142</v>
@@ -8027,7 +8012,7 @@
         <v>41</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
@@ -8035,10 +8020,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8061,19 +8046,19 @@
         <v>41</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -8122,7 +8107,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -8134,10 +8119,10 @@
         <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>142</v>
@@ -8154,10 +8139,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8269,10 +8254,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8386,14 +8371,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8415,10 +8400,10 @@
         <v>94</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>124</v>
@@ -8473,7 +8458,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8505,10 +8490,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8534,16 +8519,16 @@
         <v>159</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -8571,10 +8556,10 @@
         <v>164</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>41</v>
@@ -8592,7 +8577,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8607,7 +8592,7 @@
         <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>142</v>
@@ -8616,7 +8601,7 @@
         <v>41</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>41</v>
@@ -8624,10 +8609,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8650,17 +8635,17 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>41</v>
@@ -8709,7 +8694,7 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8724,7 +8709,7 @@
         <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>142</v>
@@ -8733,7 +8718,7 @@
         <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>41</v>
@@ -8741,10 +8726,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8770,16 +8755,16 @@
         <v>219</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>41</v>
@@ -8828,7 +8813,7 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8852,7 +8837,7 @@
         <v>41</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>41</v>
@@ -8860,10 +8845,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8889,14 +8874,14 @@
         <v>305</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>41</v>
@@ -8945,7 +8930,7 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8969,7 +8954,7 @@
         <v>41</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>41</v>
@@ -8977,10 +8962,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9009,11 +8994,11 @@
         <v>278</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>41</v>
@@ -9062,7 +9047,7 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -9086,7 +9071,7 @@
         <v>41</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>41</v>
@@ -9094,10 +9079,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9123,16 +9108,16 @@
         <v>194</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -9181,7 +9166,7 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -9190,13 +9175,13 @@
         <v>49</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>142</v>
@@ -9205,7 +9190,7 @@
         <v>41</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>41</v>
@@ -9213,10 +9198,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9242,10 +9227,10 @@
         <v>186</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9296,7 +9281,7 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -9311,7 +9296,7 @@
         <v>61</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>142</v>
@@ -9328,10 +9313,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9354,19 +9339,19 @@
         <v>41</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>41</v>
@@ -9415,7 +9400,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9430,10 +9415,10 @@
         <v>61</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
@@ -9447,10 +9432,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9562,10 +9547,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9679,14 +9664,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9708,10 +9693,10 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>124</v>
@@ -9766,7 +9751,7 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9798,10 +9783,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9827,16 +9812,16 @@
         <v>159</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>41</v>
@@ -9885,7 +9870,7 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>49</v>
@@ -9900,16 +9885,16 @@
         <v>61</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>41</v>
@@ -9917,10 +9902,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9946,16 +9931,16 @@
         <v>202</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>41</v>
@@ -10004,7 +9989,7 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -10019,16 +10004,16 @@
         <v>61</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>41</v>
@@ -10036,14 +10021,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10062,16 +10047,16 @@
         <v>41</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10121,7 +10106,7 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -10136,7 +10121,7 @@
         <v>61</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>142</v>
@@ -10145,7 +10130,7 @@
         <v>41</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>41</v>
@@ -10153,10 +10138,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10182,16 +10167,16 @@
         <v>194</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>41</v>
@@ -10240,7 +10225,7 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -10255,10 +10240,10 @@
         <v>61</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>41</v>
@@ -10272,10 +10257,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10298,19 +10283,19 @@
         <v>50</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>41</v>
@@ -10359,7 +10344,7 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -10374,7 +10359,7 @@
         <v>61</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>142</v>
@@ -10391,10 +10376,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10506,10 +10491,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10623,14 +10608,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10652,10 +10637,10 @@
         <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>124</v>
@@ -10710,7 +10695,7 @@
         <v>41</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10742,10 +10727,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10768,16 +10753,16 @@
         <v>50</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10827,7 +10812,7 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>49</v>
@@ -10851,7 +10836,7 @@
         <v>41</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>41</v>
@@ -10859,10 +10844,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10888,13 +10873,13 @@
         <v>69</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10923,10 +10908,10 @@
         <v>153</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>41</v>
@@ -10944,7 +10929,7 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>49</v>
@@ -10959,7 +10944,7 @@
         <v>61</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>142</v>

--- a/jpcore-r4/main/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-patient.xlsx
@@ -963,7 +963,7 @@
     <t>home | work | temp | old | mobile - 連絡先の用途等 【詳細参照】</t>
   </si>
   <si>
-    <t>「接点の目的を特定する。」(Setten no mokuteki wo tokutei suru.)</t>
+    <t>「接点の目的を特定する。」</t>
   </si>
   <si>
     <t>患者の連絡先の種別をValueSet(ContactPointUse)より選択する。   一時的なものまたは古いものであると明示しない限り、連絡先が最新とみなされる。  
@@ -977,7 +977,7 @@
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
   </si>
   <si>
-    <t>「接点の使用。」(Setten no shiyō.)</t>
+    <t>「接点の使用。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>

--- a/jpcore-r4/main/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-patient.xlsx
@@ -276,7 +276,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>

--- a/jpcore-r4/main/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="578">
   <si>
     <t>Property</t>
   </si>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -479,8 +479,8 @@
 など</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Patient.extension:birthPlace</t>
@@ -527,6 +527,10 @@
 　- 2111-3 フランス人  
 　- 2112-1 ドイツ人  
 など</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -3406,10 +3410,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3525,10 +3529,10 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
@@ -3644,7 +3648,7 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>141</v>
@@ -3667,14 +3671,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3696,16 +3700,16 @@
         <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>82</v>
@@ -3754,7 +3758,7 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3786,10 +3790,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3812,19 +3816,19 @@
         <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>82</v>
@@ -3873,7 +3877,7 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3888,16 +3892,16 @@
         <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>82</v>
@@ -3905,10 +3909,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3931,13 +3935,13 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3988,7 +3992,7 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -4003,7 +4007,7 @@
         <v>82</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>82</v>
@@ -4020,14 +4024,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4049,13 +4053,13 @@
         <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4096,7 +4100,7 @@
         <v>138</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>82</v>
@@ -4105,7 +4109,7 @@
         <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4120,7 +4124,7 @@
         <v>141</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>82</v>
@@ -4137,10 +4141,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4166,16 +4170,16 @@
         <v>110</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -4200,13 +4204,13 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -4224,7 +4228,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4239,7 +4243,7 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>82</v>
@@ -4256,10 +4260,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4282,19 +4286,19 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -4319,13 +4323,13 @@
         <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -4343,7 +4347,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4358,7 +4362,7 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>82</v>
@@ -4367,7 +4371,7 @@
         <v>82</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>82</v>
@@ -4375,10 +4379,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4404,16 +4408,16 @@
         <v>104</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4462,7 +4466,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4477,7 +4481,7 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
@@ -4486,7 +4490,7 @@
         <v>82</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4494,10 +4498,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4520,16 +4524,16 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4579,7 +4583,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4594,7 +4598,7 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
@@ -4603,7 +4607,7 @@
         <v>82</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4611,10 +4615,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4637,16 +4641,16 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4696,7 +4700,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4711,7 +4715,7 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
@@ -4720,7 +4724,7 @@
         <v>82</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4728,10 +4732,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4754,16 +4758,16 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4813,7 +4817,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4828,7 +4832,7 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
@@ -4837,7 +4841,7 @@
         <v>82</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4845,10 +4849,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4871,70 +4875,70 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4949,13 +4953,13 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>82</v>
@@ -4966,10 +4970,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4992,19 +4996,19 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5053,7 +5057,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5062,13 +5066,13 @@
         <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>82</v>
@@ -5077,7 +5081,7 @@
         <v>82</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5085,10 +5089,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5111,19 +5115,19 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5172,7 +5176,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5187,16 +5191,16 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5204,10 +5208,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5230,13 +5234,13 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5287,7 +5291,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5302,7 +5306,7 @@
         <v>82</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>82</v>
@@ -5319,14 +5323,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5348,13 +5352,13 @@
         <v>135</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5395,7 +5399,7 @@
         <v>138</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>82</v>
@@ -5404,7 +5408,7 @@
         <v>139</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5416,10 +5420,10 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>82</v>
@@ -5436,10 +5440,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5465,13 +5469,13 @@
         <v>110</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5497,13 +5501,13 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5521,7 +5525,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5530,13 +5534,13 @@
         <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>82</v>
@@ -5545,7 +5549,7 @@
         <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5553,10 +5557,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5579,19 +5583,19 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5640,7 +5644,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5652,10 +5656,10 @@
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>82</v>
@@ -5664,7 +5668,7 @@
         <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5672,10 +5676,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5701,16 +5705,16 @@
         <v>110</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5735,13 +5739,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5759,7 +5763,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5771,10 +5775,10 @@
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>82</v>
@@ -5783,7 +5787,7 @@
         <v>82</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5791,10 +5795,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5817,16 +5821,16 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5876,7 +5880,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5888,10 +5892,10 @@
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
@@ -5900,7 +5904,7 @@
         <v>82</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -5908,10 +5912,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5934,16 +5938,16 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5993,7 +5997,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6005,10 +6009,10 @@
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
@@ -6025,10 +6029,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6054,16 +6058,16 @@
         <v>110</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6088,13 +6092,13 @@
         <v>82</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>82</v>
@@ -6112,7 +6116,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6127,16 +6131,16 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6144,10 +6148,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6170,19 +6174,19 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6231,7 +6235,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6246,27 +6250,27 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6289,19 +6293,19 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6350,7 +6354,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6365,16 +6369,16 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6382,10 +6386,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6408,19 +6412,19 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6469,7 +6473,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6484,16 +6488,16 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6501,10 +6505,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6527,13 +6531,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6584,7 +6588,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6599,7 +6603,7 @@
         <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>82</v>
@@ -6616,14 +6620,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6645,13 +6649,13 @@
         <v>135</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6692,7 +6696,7 @@
         <v>138</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>82</v>
@@ -6701,7 +6705,7 @@
         <v>139</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6716,7 +6720,7 @@
         <v>141</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>82</v>
@@ -6733,10 +6737,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6762,16 +6766,16 @@
         <v>110</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6796,13 +6800,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6820,7 +6824,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6835,7 +6839,7 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
@@ -6844,7 +6848,7 @@
         <v>82</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6852,10 +6856,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6881,13 +6885,13 @@
         <v>110</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6913,13 +6917,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6937,7 +6941,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6952,7 +6956,7 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
@@ -6961,7 +6965,7 @@
         <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6969,10 +6973,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6995,19 +6999,19 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7056,7 +7060,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7071,7 +7075,7 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
@@ -7080,7 +7084,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7088,10 +7092,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7114,16 +7118,16 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7173,7 +7177,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7188,7 +7192,7 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>82</v>
@@ -7197,7 +7201,7 @@
         <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7205,14 +7209,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7231,16 +7235,16 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7290,7 +7294,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7305,7 +7309,7 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
@@ -7314,7 +7318,7 @@
         <v>82</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7322,14 +7326,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7348,16 +7352,16 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7407,7 +7411,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7422,7 +7426,7 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
@@ -7431,7 +7435,7 @@
         <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7439,14 +7443,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7465,16 +7469,16 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7524,7 +7528,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7539,7 +7543,7 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>82</v>
@@ -7548,7 +7552,7 @@
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7556,14 +7560,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7582,16 +7586,16 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7641,7 +7645,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7656,7 +7660,7 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>82</v>
@@ -7665,7 +7669,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7673,10 +7677,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7699,16 +7703,16 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7758,7 +7762,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7773,7 +7777,7 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>82</v>
@@ -7782,7 +7786,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7790,10 +7794,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7816,19 +7820,19 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7877,7 +7881,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7892,7 +7896,7 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>82</v>
@@ -7901,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7909,10 +7913,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7935,19 +7939,19 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7972,13 +7976,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7996,7 +8000,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8011,16 +8015,16 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8028,10 +8032,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8054,19 +8058,19 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8115,7 +8119,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8130,16 +8134,16 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8147,10 +8151,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8173,19 +8177,19 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8234,7 +8238,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8249,16 +8253,16 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8266,10 +8270,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8292,19 +8296,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8353,7 +8357,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8365,13 +8369,13 @@
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>82</v>
@@ -8385,10 +8389,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8411,13 +8415,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8468,7 +8472,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8483,7 +8487,7 @@
         <v>82</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
@@ -8500,14 +8504,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8529,13 +8533,13 @@
         <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8585,7 +8589,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8600,7 +8604,7 @@
         <v>141</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>82</v>
@@ -8617,14 +8621,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8646,16 +8650,16 @@
         <v>135</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8704,7 +8708,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8736,10 +8740,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8762,19 +8766,19 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -8799,13 +8803,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -8823,7 +8827,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8838,16 +8842,16 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8855,10 +8859,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8881,17 +8885,17 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -8940,7 +8944,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8955,16 +8959,16 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -8972,10 +8976,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8998,19 +9002,19 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9059,7 +9063,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9074,16 +9078,16 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9091,10 +9095,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9117,17 +9121,17 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9176,7 +9180,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9191,16 +9195,16 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9208,10 +9212,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9237,14 +9241,14 @@
         <v>110</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9269,13 +9273,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9293,7 +9297,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9308,16 +9312,16 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9325,10 +9329,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9351,19 +9355,19 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9412,7 +9416,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9421,22 +9425,22 @@
         <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9444,10 +9448,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9470,13 +9474,13 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9527,7 +9531,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9542,10 +9546,10 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>82</v>
@@ -9559,10 +9563,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9585,19 +9589,19 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9646,7 +9650,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9661,10 +9665,10 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>82</v>
@@ -9678,10 +9682,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9704,13 +9708,13 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9761,7 +9765,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9776,7 +9780,7 @@
         <v>82</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>82</v>
@@ -9793,14 +9797,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9822,13 +9826,13 @@
         <v>135</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9878,7 +9882,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9893,7 +9897,7 @@
         <v>141</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>82</v>
@@ -9910,14 +9914,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9939,16 +9943,16 @@
         <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -9997,7 +10001,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10029,10 +10033,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10055,19 +10059,19 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10116,7 +10120,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>90</v>
@@ -10131,16 +10135,16 @@
         <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10148,10 +10152,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10174,19 +10178,19 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10235,7 +10239,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10250,16 +10254,16 @@
         <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10267,14 +10271,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10293,16 +10297,16 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10352,7 +10356,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10367,16 +10371,16 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10384,10 +10388,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10410,19 +10414,19 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10471,7 +10475,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10486,10 +10490,10 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>82</v>
@@ -10503,10 +10507,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10529,19 +10533,19 @@
         <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10590,7 +10594,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10605,10 +10609,10 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>82</v>
@@ -10622,10 +10626,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10648,13 +10652,13 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10705,7 +10709,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10720,7 +10724,7 @@
         <v>82</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>82</v>
@@ -10737,14 +10741,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10766,13 +10770,13 @@
         <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10822,7 +10826,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10837,7 +10841,7 @@
         <v>141</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>82</v>
@@ -10854,14 +10858,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10883,16 +10887,16 @@
         <v>135</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -10941,7 +10945,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10973,10 +10977,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10999,16 +11003,16 @@
         <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11058,7 +11062,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>90</v>
@@ -11073,16 +11077,16 @@
         <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11090,10 +11094,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11119,13 +11123,13 @@
         <v>110</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11151,13 +11155,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11175,7 +11179,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>90</v>
@@ -11190,10 +11194,10 @@
         <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>82</v>
